--- a/04. Q2/02. Datenbankprogrammierung/src/_05_Normalisierung_von_Datenbanken/Arbeitsblatt zur Normalisierung von Datenbanken.xlsx
+++ b/04. Q2/02. Datenbankprogrammierung/src/_05_Normalisierung_von_Datenbanken/Arbeitsblatt zur Normalisierung von Datenbanken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\1. Schule\10. EF\11. Informatik\JavaProjects\Info_SII_Java\04. Q2\02. Datenbankprogrammierung\src\_05_Normalisierung_von_Datenbanken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C74C3E-76B0-49F2-9B09-83426E06E54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649DD26D-A87E-4198-ABE5-AF224210A9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2C9368D-E2C6-43E5-821D-F3DD7BB82EB9}"/>
   </bookViews>
@@ -1790,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11865AF4-29AD-45F0-A5D5-B9FA6FF4BD8E}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
